--- a/設計書/Sakagami/プロジェクト型演習_成果物(削除画面).xlsx
+++ b/設計書/Sakagami/プロジェクト型演習_成果物(削除画面).xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Sakagami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16582267-EB11-4443-A5AC-99F08050911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503229A8-E1A9-4CDB-8291-485AB29DC5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="844" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="844" activeTab="4" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="5" r:id="rId1"/>
     <sheet name="ユースケース記述" sheetId="2" r:id="rId2"/>
     <sheet name="画面設計書" sheetId="1" r:id="rId3"/>
     <sheet name="詳細クラス図" sheetId="6" r:id="rId4"/>
+    <sheet name="テスト仕様書兼結果報告書" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
   <si>
     <t>レイヤー</t>
     <phoneticPr fontId="1"/>
@@ -675,6 +676,112 @@
 task-delete-success.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>テスト仕様書兼
+結果報告書</t>
+  </si>
+  <si>
+    <t>テストレベル</t>
+  </si>
+  <si>
+    <t>システムテスト</t>
+  </si>
+  <si>
+    <t>テストベース</t>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+  </si>
+  <si>
+    <t>テスト対象</t>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>重要度</t>
+  </si>
+  <si>
+    <t>重要度は、次のいずれかを持つ</t>
+  </si>
+  <si>
+    <t>◎：仕様　⇒100%解決する必要がある</t>
+  </si>
+  <si>
+    <t>○：重要　⇒別途テストパス率の指針に従う</t>
+  </si>
+  <si>
+    <t>△：重要ではない　⇒別途テストパス率の指針に従う</t>
+  </si>
+  <si>
+    <t>×：無くても良い　⇒個別に検討する</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>系統</t>
+  </si>
+  <si>
+    <t>テストテーマ</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>操作手順</t>
+  </si>
+  <si>
+    <t>予測結果</t>
+  </si>
+  <si>
+    <t>テスト日</t>
+  </si>
+  <si>
+    <t>対応者</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>◎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正常系
+</t>
+  </si>
+  <si>
+    <t>URLアクセス</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ans1101/login.html　へアクセスする</t>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移する</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>異常系</t>
+  </si>
+  <si>
+    <t>ユーザIDがDBに登録されていないときのログインボタン動作</t>
+  </si>
+  <si>
+    <t>・ユーザID：999999
+・パスワード：root</t>
+  </si>
+  <si>
+    <t>ログインするボタンを押下する</t>
+  </si>
+  <si>
+    <t>エラー画面へ遷移する
+エラーの原因がユーザ名が未入力である旨通知する</t>
+  </si>
 </sst>
 </file>
 
@@ -683,7 +790,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +862,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -776,7 +890,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="95">
     <border>
       <left/>
       <right/>
@@ -1780,16 +1894,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1910,6 +2161,54 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1973,27 +2272,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2018,35 +2299,140 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2054,150 +2440,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2273,12 +2524,202 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="84" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="85" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="86" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="92" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="93" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="94" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{A8C13B70-D19D-4C5B-A98D-91448A1480CB}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{0283149E-BF34-4E75-A655-3221F6AB9609}"/>
     <cellStyle name="標準 4" xfId="3" xr:uid="{438EC881-FA9F-4241-AB25-A2CFA7EEF769}"/>
+    <cellStyle name="標準 5" xfId="4" xr:uid="{55A96A22-360A-4000-9C44-7A45BF7EDE83}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6089,7 +6530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EF8804-ED12-429B-AA5E-4AF81E6CD219}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7261,7 +7702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -7273,19 +7714,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="63"/>
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
@@ -7297,206 +7738,195 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="54">
+      <c r="G2" s="65"/>
+      <c r="H2" s="70">
         <v>45639</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="59"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="60"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="82" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="83"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="65" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="84"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="52"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="85" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="84"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="1:10" ht="65.25" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="65" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="84"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="65" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="61" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="85" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="81"/>
-      <c r="B11" s="61" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="65" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="62.25" customHeight="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="65" t="s">
+      <c r="B12" s="77"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -7513,6 +7943,17 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7533,263 +7974,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90" t="s">
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="93"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="135"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="86" t="s">
+      <c r="D2" s="111"/>
+      <c r="E2" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="91" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="92"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="134"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="87"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="132"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="95"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="132"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A5" s="95"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="87"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="132"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="95"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="87"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="132"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="95"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="87"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="132"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="95"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="87"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="132"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91" t="s">
+      <c r="D9" s="111"/>
+      <c r="E9" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="86" t="s">
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="87"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="132"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="95"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="87"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="132"/>
     </row>
     <row r="11" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="111"/>
+      <c r="C11" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91" t="s">
+      <c r="D11" s="111"/>
+      <c r="E11" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="86" t="s">
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="87"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="132"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A12" s="96"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88" t="s">
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88" t="s">
+      <c r="D12" s="113"/>
+      <c r="E12" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88" t="s">
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="89"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="133"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="112" t="s">
+      <c r="B13" s="127"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="113"/>
-      <c r="F13" s="112" t="s">
+      <c r="E13" s="130"/>
+      <c r="F13" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="113"/>
+      <c r="G13" s="130"/>
       <c r="H13" s="28" t="s">
         <v>17</v>
       </c>
@@ -7801,310 +8242,310 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="111"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="48" t="s">
+      <c r="A14" s="128"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="48" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="54">
+      <c r="G14" s="65"/>
+      <c r="H14" s="70">
         <v>45639</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="107"/>
+      <c r="J14" s="124"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="111"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="108"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="125"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A16" s="111"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="108"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="125"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="116" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="117"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="106"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="118"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="89"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="98"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="101"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="103"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="101"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="103"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="103"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="120"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="101"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="103"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="120"/>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="103"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="120"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="101"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="103"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="120"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="101"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="103"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="120"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="114"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="101"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="103"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="120"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="101"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="103"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="120"/>
       <c r="N28" s="24"/>
       <c r="O28" s="24"/>
       <c r="P28" s="24"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="101"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="103"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="120"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="101"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="103"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="120"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="101"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="103"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="120"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="101"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="103"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="120"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="101"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="103"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="120"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="104"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="106"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="118"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="89"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="114" t="s">
+      <c r="A36" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="85" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="42"/>
       <c r="I36" s="2" t="s">
         <v>24</v>
       </c>
@@ -8113,11 +8554,11 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="114" t="s">
+      <c r="A37" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="2" t="s">
         <v>26</v>
       </c>
@@ -8130,18 +8571,18 @@
       <c r="G37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="119" t="s">
+      <c r="H37" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="77"/>
-      <c r="J37" s="118"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="115" t="s">
+      <c r="A38" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
         <v>49</v>
@@ -8152,35 +8593,35 @@
       <c r="G38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="118"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="89"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="115"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="135"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="104"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="114" t="s">
+      <c r="A40" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="85" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="78"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
       <c r="I40" s="2" t="s">
         <v>24</v>
       </c>
@@ -8189,11 +8630,11 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="114" t="s">
+      <c r="A41" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
@@ -8206,18 +8647,18 @@
       <c r="G41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="119" t="s">
+      <c r="H41" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="77"/>
-      <c r="J41" s="118"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="89"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="127" t="s">
+      <c r="A42" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="128"/>
-      <c r="C42" s="129"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25" t="s">
         <v>49</v>
@@ -8228,44 +8669,38 @@
       <c r="G42" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="130"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="132"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="101"/>
     </row>
     <row r="43" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A43" s="121"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="123"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="126"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H9:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G8"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H1:O1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B8"/>
     <mergeCell ref="A9:B10"/>
@@ -8282,20 +8717,26 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H3:O8"/>
-    <mergeCell ref="H9:O10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G8"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10104,4 +10545,2042 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC3E0D0-3737-416C-9D18-CA89C4855223}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17:Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="2.5" style="168" customWidth="1"/>
+    <col min="7" max="20" width="7.125" style="168" customWidth="1"/>
+    <col min="21" max="26" width="7.625" style="168" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="168"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="18" customHeight="1">
+      <c r="A1" s="161" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="164" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="164" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="164" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="164" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="166"/>
+      <c r="S1" s="164" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="167"/>
+    </row>
+    <row r="2" spans="1:26" ht="18" customHeight="1">
+      <c r="A2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="175"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1">
+      <c r="A3" s="169"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="177"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="178"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="181"/>
+      <c r="T4" s="182"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" customHeight="1">
+      <c r="A5" s="183" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="167"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1">
+      <c r="A6" s="185" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
+      <c r="R6" s="186"/>
+      <c r="S6" s="186"/>
+      <c r="T6" s="189"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" customHeight="1">
+      <c r="A7" s="185" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="188" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
+      <c r="S7" s="186"/>
+      <c r="T7" s="189"/>
+    </row>
+    <row r="8" spans="1:26" ht="7.5" customHeight="1">
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="191"/>
+      <c r="Q8" s="191"/>
+      <c r="R8" s="191"/>
+      <c r="S8" s="191"/>
+      <c r="T8" s="192"/>
+    </row>
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A9" s="193"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="195" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="196"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="198"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A10" s="193"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="194"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="198"/>
+      <c r="U10" s="194"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A11" s="193"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="194"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="194"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="198"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A12" s="193"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="194"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="200"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="194"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="194"/>
+      <c r="S12" s="194"/>
+      <c r="T12" s="198"/>
+      <c r="U12" s="194"/>
+      <c r="V12" s="194"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A13" s="193"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="202" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="202"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="203"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="194"/>
+      <c r="S13" s="194"/>
+      <c r="T13" s="198"/>
+      <c r="U13" s="194"/>
+      <c r="V13" s="194"/>
+      <c r="W13" s="194"/>
+      <c r="X13" s="194"/>
+      <c r="Y13" s="194"/>
+      <c r="Z13" s="194"/>
+    </row>
+    <row r="14" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A14" s="190"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="191"/>
+      <c r="Q14" s="191"/>
+      <c r="R14" s="191"/>
+      <c r="S14" s="191"/>
+      <c r="T14" s="192"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A15" s="185" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="187"/>
+      <c r="C15" s="204" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="187"/>
+      <c r="E15" s="205" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="187"/>
+      <c r="G15" s="205" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="205" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="187"/>
+      <c r="L15" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="186"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="205" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="186"/>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="206" t="s">
+        <v>100</v>
+      </c>
+      <c r="S15" s="206" t="s">
+        <v>101</v>
+      </c>
+      <c r="T15" s="207" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="48" customHeight="1">
+      <c r="A16" s="208">
+        <v>1</v>
+      </c>
+      <c r="B16" s="187"/>
+      <c r="C16" s="209" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="187"/>
+      <c r="E16" s="209" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="187"/>
+      <c r="G16" s="210" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="186"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="210" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="187"/>
+      <c r="L16" s="211" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="186"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="211" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="186"/>
+      <c r="Q16" s="187"/>
+      <c r="R16" s="212"/>
+      <c r="S16" s="212"/>
+      <c r="T16" s="213"/>
+      <c r="U16" s="214"/>
+      <c r="V16" s="214"/>
+      <c r="W16" s="214"/>
+      <c r="X16" s="214"/>
+      <c r="Y16" s="214"/>
+      <c r="Z16" s="214"/>
+    </row>
+    <row r="17" spans="1:26" ht="41.25" customHeight="1">
+      <c r="A17" s="208">
+        <v>2</v>
+      </c>
+      <c r="B17" s="187"/>
+      <c r="C17" s="209" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="187"/>
+      <c r="E17" s="209" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="187"/>
+      <c r="G17" s="210" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="186"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="210" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="187"/>
+      <c r="L17" s="211" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="186"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="211" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="186"/>
+      <c r="Q17" s="187"/>
+      <c r="R17" s="212"/>
+      <c r="S17" s="212"/>
+      <c r="T17" s="213"/>
+      <c r="U17" s="214"/>
+      <c r="V17" s="214"/>
+      <c r="W17" s="214"/>
+      <c r="X17" s="214"/>
+      <c r="Y17" s="214"/>
+      <c r="Z17" s="214"/>
+    </row>
+    <row r="18" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A18" s="208"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="211"/>
+      <c r="M18" s="186"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="211"/>
+      <c r="P18" s="186"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="212"/>
+      <c r="S18" s="212"/>
+      <c r="T18" s="213"/>
+      <c r="U18" s="214"/>
+      <c r="V18" s="214"/>
+      <c r="W18" s="214"/>
+      <c r="X18" s="214"/>
+      <c r="Y18" s="214"/>
+      <c r="Z18" s="214"/>
+    </row>
+    <row r="19" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A19" s="208"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="211"/>
+      <c r="M19" s="186"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="211"/>
+      <c r="P19" s="186"/>
+      <c r="Q19" s="187"/>
+      <c r="R19" s="212"/>
+      <c r="S19" s="212"/>
+      <c r="T19" s="213"/>
+      <c r="U19" s="214"/>
+      <c r="V19" s="214"/>
+      <c r="W19" s="214"/>
+      <c r="X19" s="214"/>
+      <c r="Y19" s="214"/>
+      <c r="Z19" s="214"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A20" s="208"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="211"/>
+      <c r="M20" s="186"/>
+      <c r="N20" s="187"/>
+      <c r="O20" s="211"/>
+      <c r="P20" s="186"/>
+      <c r="Q20" s="187"/>
+      <c r="R20" s="212"/>
+      <c r="S20" s="212"/>
+      <c r="T20" s="213"/>
+      <c r="U20" s="214"/>
+      <c r="V20" s="214"/>
+      <c r="W20" s="214"/>
+      <c r="X20" s="214"/>
+      <c r="Y20" s="214"/>
+      <c r="Z20" s="214"/>
+    </row>
+    <row r="21" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A21" s="208"/>
+      <c r="B21" s="187"/>
+      <c r="C21" s="209"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="210"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="211"/>
+      <c r="M21" s="186"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="211"/>
+      <c r="P21" s="186"/>
+      <c r="Q21" s="187"/>
+      <c r="R21" s="212"/>
+      <c r="S21" s="212"/>
+      <c r="T21" s="213"/>
+      <c r="U21" s="214"/>
+      <c r="V21" s="214"/>
+      <c r="W21" s="214"/>
+      <c r="X21" s="214"/>
+      <c r="Y21" s="214"/>
+      <c r="Z21" s="214"/>
+    </row>
+    <row r="22" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A22" s="208"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="210"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="211"/>
+      <c r="M22" s="186"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="211"/>
+      <c r="P22" s="186"/>
+      <c r="Q22" s="187"/>
+      <c r="R22" s="212"/>
+      <c r="S22" s="212"/>
+      <c r="T22" s="213"/>
+      <c r="U22" s="214"/>
+      <c r="V22" s="214"/>
+      <c r="W22" s="214"/>
+      <c r="X22" s="214"/>
+      <c r="Y22" s="214"/>
+      <c r="Z22" s="214"/>
+    </row>
+    <row r="23" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A23" s="208"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="211"/>
+      <c r="M23" s="186"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="211"/>
+      <c r="P23" s="186"/>
+      <c r="Q23" s="187"/>
+      <c r="R23" s="212"/>
+      <c r="S23" s="212"/>
+      <c r="T23" s="213"/>
+      <c r="U23" s="214"/>
+      <c r="V23" s="214"/>
+      <c r="W23" s="214"/>
+      <c r="X23" s="214"/>
+      <c r="Y23" s="214"/>
+      <c r="Z23" s="214"/>
+    </row>
+    <row r="24" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A24" s="208"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="209"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="210"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="211"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="211"/>
+      <c r="P24" s="186"/>
+      <c r="Q24" s="187"/>
+      <c r="R24" s="212"/>
+      <c r="S24" s="212"/>
+      <c r="T24" s="213"/>
+      <c r="U24" s="214"/>
+      <c r="V24" s="214"/>
+      <c r="W24" s="214"/>
+      <c r="X24" s="214"/>
+      <c r="Y24" s="214"/>
+      <c r="Z24" s="214"/>
+    </row>
+    <row r="25" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A25" s="208"/>
+      <c r="B25" s="187"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="210"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="211"/>
+      <c r="M25" s="186"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="211"/>
+      <c r="P25" s="186"/>
+      <c r="Q25" s="187"/>
+      <c r="R25" s="212"/>
+      <c r="S25" s="212"/>
+      <c r="T25" s="213"/>
+      <c r="U25" s="214"/>
+      <c r="V25" s="214"/>
+      <c r="W25" s="214"/>
+      <c r="X25" s="214"/>
+      <c r="Y25" s="214"/>
+      <c r="Z25" s="214"/>
+    </row>
+    <row r="26" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A26" s="208"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="211"/>
+      <c r="M26" s="186"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="211"/>
+      <c r="P26" s="186"/>
+      <c r="Q26" s="187"/>
+      <c r="R26" s="212"/>
+      <c r="S26" s="212"/>
+      <c r="T26" s="213"/>
+      <c r="U26" s="214"/>
+      <c r="V26" s="214"/>
+      <c r="W26" s="214"/>
+      <c r="X26" s="214"/>
+      <c r="Y26" s="214"/>
+      <c r="Z26" s="214"/>
+    </row>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A27" s="208"/>
+      <c r="B27" s="187"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="210"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="211"/>
+      <c r="M27" s="186"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="211"/>
+      <c r="P27" s="186"/>
+      <c r="Q27" s="187"/>
+      <c r="R27" s="212"/>
+      <c r="S27" s="212"/>
+      <c r="T27" s="213"/>
+      <c r="U27" s="214"/>
+      <c r="V27" s="214"/>
+      <c r="W27" s="214"/>
+      <c r="X27" s="214"/>
+      <c r="Y27" s="214"/>
+      <c r="Z27" s="214"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A28" s="208"/>
+      <c r="B28" s="187"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="187"/>
+      <c r="J28" s="210"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="211"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="211"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="187"/>
+      <c r="R28" s="212"/>
+      <c r="S28" s="212"/>
+      <c r="T28" s="213"/>
+      <c r="U28" s="214"/>
+      <c r="V28" s="214"/>
+      <c r="W28" s="214"/>
+      <c r="X28" s="214"/>
+      <c r="Y28" s="214"/>
+      <c r="Z28" s="214"/>
+    </row>
+    <row r="29" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A29" s="208"/>
+      <c r="B29" s="187"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="210"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="211"/>
+      <c r="M29" s="186"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="211"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="212"/>
+      <c r="S29" s="212"/>
+      <c r="T29" s="213"/>
+      <c r="U29" s="214"/>
+      <c r="V29" s="214"/>
+      <c r="W29" s="214"/>
+      <c r="X29" s="214"/>
+      <c r="Y29" s="214"/>
+      <c r="Z29" s="214"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A30" s="208"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="210"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="211"/>
+      <c r="M30" s="186"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="211"/>
+      <c r="P30" s="186"/>
+      <c r="Q30" s="187"/>
+      <c r="R30" s="212"/>
+      <c r="S30" s="212"/>
+      <c r="T30" s="213"/>
+      <c r="U30" s="214"/>
+      <c r="V30" s="214"/>
+      <c r="W30" s="214"/>
+      <c r="X30" s="214"/>
+      <c r="Y30" s="214"/>
+      <c r="Z30" s="214"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A31" s="215"/>
+      <c r="B31" s="216"/>
+      <c r="C31" s="217"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="216"/>
+      <c r="L31" s="220"/>
+      <c r="M31" s="219"/>
+      <c r="N31" s="216"/>
+      <c r="O31" s="220"/>
+      <c r="P31" s="219"/>
+      <c r="Q31" s="216"/>
+      <c r="R31" s="221"/>
+      <c r="S31" s="221"/>
+      <c r="T31" s="222"/>
+      <c r="U31" s="214"/>
+      <c r="V31" s="214"/>
+      <c r="W31" s="214"/>
+      <c r="X31" s="214"/>
+      <c r="Y31" s="214"/>
+      <c r="Z31" s="214"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.75" customHeight="1">
+      <c r="D32" s="223"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="223"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="223"/>
+    </row>
+    <row r="33" spans="4:10" ht="12.75" customHeight="1">
+      <c r="D33" s="223"/>
+      <c r="E33" s="223"/>
+      <c r="F33" s="223"/>
+      <c r="G33" s="223"/>
+      <c r="H33" s="223"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="223"/>
+    </row>
+    <row r="34" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="35" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="36" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="37" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="38" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="39" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="40" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="41" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="42" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="43" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="44" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="45" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="46" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="47" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="48" spans="4:10" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="136">
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+</worksheet>
 </file>
--- a/設計書/Sakagami/プロジェクト型演習_成果物(削除画面).xlsx
+++ b/設計書/Sakagami/プロジェクト型演習_成果物(削除画面).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Sakagami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503229A8-E1A9-4CDB-8291-485AB29DC5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCF0194-261F-49DD-8F5A-E89C11F1CF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="844" activeTab="4" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
   <si>
     <t>レイヤー</t>
     <phoneticPr fontId="1"/>
@@ -751,36 +751,158 @@
 </t>
   </si>
   <si>
-    <t>URLアクセス</t>
+    <t>画面観点</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンカンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク詳細画面から画面遷移</t>
+    <rPh sb="3" eb="7">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク詳細画面から削除ボタン押下で画面遷移</t>
+    <rPh sb="3" eb="7">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除を行う該当タスクの詳細データの表示がされる</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正常系
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能観点</t>
+    <rPh sb="0" eb="4">
+      <t>キノウカンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>なし</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://localhost:8080/ans1101/login.html　へアクセスする</t>
+    <t>タスク削除画面で削除ボタンを押下</t>
+    <rPh sb="3" eb="7">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面へ遷移する</t>
+    <t>該当タスクの削除が行われ、削除完了画面へと遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="13" eb="19">
+      <t>サクジョカンリョウガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
+    <t>タスク削除画面で一覧ボタンを押下</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク一覧画面へと遷移する</t>
+    <rPh sb="3" eb="7">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>異常系</t>
+    <rPh sb="0" eb="3">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザIDがDBに登録されていないときのログインボタン動作</t>
+    <t>すでに削除済みのタスクを削除しようとした場合</t>
+    <rPh sb="3" eb="6">
+      <t>サクジョズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ユーザID：999999
-・パスワード：root</t>
-  </si>
-  <si>
-    <t>ログインするボタンを押下する</t>
-  </si>
-  <si>
-    <t>エラー画面へ遷移する
-エラーの原因がユーザ名が未入力である旨通知する</t>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2134,6 +2256,75 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="84" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="85" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="86" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="92" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="93" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="94" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2161,9 +2352,117 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2179,125 +2478,122 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2308,9 +2604,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2320,12 +2613,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2335,9 +2622,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2356,99 +2640,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2524,6 +2715,90 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2533,185 +2808,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="84" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="85" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="86" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="88" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="89" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="90" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="92" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="93" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="94" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6541,85 +6663,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1" thickBot="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1" thickTop="1">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
       <c r="P2" s="10"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1" thickBot="1">
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1" thickTop="1">
@@ -6639,48 +6761,48 @@
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="31" t="s">
+      <c r="H13" s="55"/>
+      <c r="I13" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="32"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="39">
+      <c r="G14" s="54"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="62">
         <v>45639</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="32"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="32"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="12"/>
@@ -6689,13 +6811,13 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -7714,19 +7836,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="63"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
@@ -7738,195 +7860,206 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="64" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="64" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="70">
+      <c r="G2" s="72"/>
+      <c r="H2" s="77">
         <v>45639</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="74"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="75"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="76"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="48" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="106"/>
     </row>
     <row r="6" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="51" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="52"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="107"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="53" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="52"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="107"/>
     </row>
     <row r="8" spans="1:10" ht="65.25" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="51" t="s">
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="52"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="107"/>
     </row>
     <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="85"/>
+      <c r="D9" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="44"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="103"/>
+      <c r="B10" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="53" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="104"/>
+      <c r="B11" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="51" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="90"/>
     </row>
     <row r="12" spans="1:10" ht="62.25" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="51" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="90"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -7943,17 +8076,6 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7974,263 +8096,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109" t="s">
+      <c r="D1" s="113"/>
+      <c r="E1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109" t="s">
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="135"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="116"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="131" t="s">
+      <c r="D2" s="114"/>
+      <c r="E2" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="111" t="s">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="134"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131" t="s">
+      <c r="A3" s="118"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="132"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="110"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="132"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="110"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="132"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="110"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="132"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="110"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="110"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="132"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="110"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111" t="s">
+      <c r="B9" s="114"/>
+      <c r="C9" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111" t="s">
+      <c r="D9" s="114"/>
+      <c r="E9" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="131" t="s">
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="132"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="110"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="110"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="132"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="110"/>
     </row>
     <row r="11" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111" t="s">
+      <c r="D11" s="114"/>
+      <c r="E11" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="131" t="s">
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="132"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="110"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113" t="s">
+      <c r="A12" s="119"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113" t="s">
+      <c r="D12" s="111"/>
+      <c r="E12" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113" t="s">
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="133"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="112"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="129" t="s">
+      <c r="B13" s="133"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="129" t="s">
+      <c r="E13" s="136"/>
+      <c r="F13" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="130"/>
+      <c r="G13" s="136"/>
       <c r="H13" s="28" t="s">
         <v>17</v>
       </c>
@@ -8242,310 +8364,310 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="128"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="64" t="s">
+      <c r="A14" s="134"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="64" t="s">
+      <c r="E14" s="72"/>
+      <c r="F14" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="70">
+      <c r="G14" s="72"/>
+      <c r="H14" s="77">
         <v>45639</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="124"/>
+      <c r="J14" s="130"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="128"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="125"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="131"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A16" s="128"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="125"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="131"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="105" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="106"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="140"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="89"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="141"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="115"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="123"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="118"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="126"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="118"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
+      <c r="A21" s="124"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="126"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A22" s="118"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="126"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="118"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="120"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="126"/>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A24" s="118"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="126"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="118"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="120"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="126"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="118"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="120"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="114"/>
-      <c r="V26" s="114"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="126"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="120"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="120"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="118"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="126"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="118"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="120"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="126"/>
       <c r="N28" s="24"/>
       <c r="O28" s="24"/>
       <c r="P28" s="24"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="118"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="120"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="126"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="118"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="120"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="126"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="118"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="120"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="126"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="118"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="120"/>
+      <c r="A32" s="124"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="126"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="118"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="120"/>
+      <c r="A33" s="124"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="126"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="121"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="129"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="89"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="141"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="53" t="s">
+      <c r="B36" s="100"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="42"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="101"/>
       <c r="I36" s="2" t="s">
         <v>24</v>
       </c>
@@ -8554,11 +8676,11 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="101"/>
       <c r="D37" s="2" t="s">
         <v>26</v>
       </c>
@@ -8571,18 +8693,18 @@
       <c r="G37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="98" t="s">
+      <c r="H37" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="89"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="141"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
         <v>49</v>
@@ -8593,35 +8715,35 @@
       <c r="G38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="89"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="141"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="93"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="104"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="158"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="53" t="s">
+      <c r="B40" s="100"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="101"/>
       <c r="I40" s="2" t="s">
         <v>24</v>
       </c>
@@ -8630,11 +8752,11 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="101"/>
       <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
@@ -8647,18 +8769,18 @@
       <c r="G41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="98" t="s">
+      <c r="H41" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="89"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="141"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="152"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25" t="s">
         <v>49</v>
@@ -8669,38 +8791,44 @@
       <c r="G42" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="99"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="101"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="155"/>
     </row>
     <row r="43" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A43" s="86"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="88"/>
+      <c r="A43" s="144"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="146"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="92"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="H9:O10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G8"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B8"/>
     <mergeCell ref="A9:B10"/>
@@ -8717,26 +8845,20 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H3:O8"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H9:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G8"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8761,20 +8883,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="151" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="152"/>
-      <c r="F1" s="151" t="s">
+      <c r="E1" s="175"/>
+      <c r="F1" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="153"/>
-      <c r="H1" s="152"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="175"/>
       <c r="I1" s="13" t="s">
         <v>17</v>
       </c>
@@ -8786,51 +8908,51 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="145"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="154" t="s">
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="155"/>
-      <c r="F2" s="154" t="s">
+      <c r="E2" s="178"/>
+      <c r="F2" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="160">
+      <c r="G2" s="181"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="183">
         <v>45639</v>
       </c>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="139"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="145"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="140"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="163"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="141"/>
+      <c r="A4" s="171"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="164"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="17"/>
@@ -10551,927 +10673,956 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC3E0D0-3737-416C-9D18-CA89C4855223}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="2.5" style="168" customWidth="1"/>
-    <col min="7" max="20" width="7.125" style="168" customWidth="1"/>
-    <col min="21" max="26" width="7.625" style="168" customWidth="1"/>
-    <col min="27" max="16384" width="12.625" style="168"/>
+    <col min="1" max="6" width="2.5" style="31" customWidth="1"/>
+    <col min="7" max="17" width="7.125" style="31" customWidth="1"/>
+    <col min="18" max="20" width="10.625" style="31" customWidth="1"/>
+    <col min="21" max="26" width="7.625" style="31" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="212" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="164" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="164" t="s">
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="164" t="s">
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="164" t="s">
+      <c r="P1" s="207"/>
+      <c r="Q1" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="166"/>
-      <c r="S1" s="164" t="s">
+      <c r="R1" s="207"/>
+      <c r="S1" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="167"/>
+      <c r="T1" s="209"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="175"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="223"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="200"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="177"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="201"/>
+      <c r="R3" s="217"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="202"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="178"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="181"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="181"/>
-      <c r="T4" s="182"/>
+      <c r="A4" s="218"/>
+      <c r="B4" s="219"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="219"/>
+      <c r="M4" s="219"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="220"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="220"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="204"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="205" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="184" t="s">
+      <c r="B5" s="206"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="208" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="165"/>
-      <c r="O5" s="165"/>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="165"/>
-      <c r="T5" s="167"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="209"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="197" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188" t="s">
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="186"/>
-      <c r="S6" s="186"/>
-      <c r="T6" s="189"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
+      <c r="P6" s="191"/>
+      <c r="Q6" s="191"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="211"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="188" t="s">
+      <c r="B7" s="191"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
-      <c r="S7" s="186"/>
-      <c r="T7" s="189"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="191"/>
+      <c r="R7" s="191"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="211"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A8" s="190"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="191"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191"/>
-      <c r="M8" s="191"/>
-      <c r="N8" s="191"/>
-      <c r="O8" s="191"/>
-      <c r="P8" s="191"/>
-      <c r="Q8" s="191"/>
-      <c r="R8" s="191"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="192"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="34"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A9" s="193"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="195" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="196"/>
-      <c r="G9" s="197"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="194"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="194"/>
-      <c r="P9" s="194"/>
-      <c r="Q9" s="194"/>
-      <c r="R9" s="194"/>
-      <c r="S9" s="194"/>
-      <c r="T9" s="198"/>
-      <c r="U9" s="194"/>
-      <c r="V9" s="194"/>
-      <c r="W9" s="194"/>
-      <c r="X9" s="194"/>
-      <c r="Y9" s="194"/>
-      <c r="Z9" s="194"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A10" s="193"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="194"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="194"/>
-      <c r="M10" s="194"/>
-      <c r="N10" s="194"/>
-      <c r="O10" s="194"/>
-      <c r="P10" s="194"/>
-      <c r="Q10" s="194"/>
-      <c r="R10" s="194"/>
-      <c r="S10" s="194"/>
-      <c r="T10" s="198"/>
-      <c r="U10" s="194"/>
-      <c r="V10" s="194"/>
-      <c r="W10" s="194"/>
-      <c r="X10" s="194"/>
-      <c r="Y10" s="194"/>
-      <c r="Z10" s="194"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A11" s="193"/>
-      <c r="B11" s="194"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="194" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="194"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="194"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="194"/>
-      <c r="O11" s="194"/>
-      <c r="P11" s="194"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="194"/>
-      <c r="S11" s="194"/>
-      <c r="T11" s="198"/>
-      <c r="U11" s="194"/>
-      <c r="V11" s="194"/>
-      <c r="W11" s="194"/>
-      <c r="X11" s="194"/>
-      <c r="Y11" s="194"/>
-      <c r="Z11" s="194"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A12" s="193"/>
-      <c r="B12" s="194"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="194"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="194"/>
-      <c r="O12" s="194"/>
-      <c r="P12" s="194"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="194"/>
-      <c r="S12" s="194"/>
-      <c r="T12" s="198"/>
-      <c r="U12" s="194"/>
-      <c r="V12" s="194"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="194"/>
-      <c r="Z12" s="194"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A13" s="193"/>
-      <c r="B13" s="194"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="202"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="203"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="194"/>
-      <c r="O13" s="194"/>
-      <c r="P13" s="194"/>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="194"/>
-      <c r="S13" s="194"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="194"/>
-      <c r="V13" s="194"/>
-      <c r="W13" s="194"/>
-      <c r="X13" s="194"/>
-      <c r="Y13" s="194"/>
-      <c r="Z13" s="194"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
     </row>
     <row r="14" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A14" s="190"/>
-      <c r="B14" s="191"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="191"/>
-      <c r="T14" s="192"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="187"/>
-      <c r="C15" s="204" t="s">
+      <c r="B15" s="192"/>
+      <c r="C15" s="198" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="187"/>
-      <c r="E15" s="205" t="s">
+      <c r="D15" s="192"/>
+      <c r="E15" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="187"/>
-      <c r="G15" s="205" t="s">
+      <c r="F15" s="192"/>
+      <c r="G15" s="196" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="186"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="205" t="s">
+      <c r="H15" s="191"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="187"/>
-      <c r="L15" s="205" t="s">
+      <c r="K15" s="192"/>
+      <c r="L15" s="196" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="186"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="205" t="s">
+      <c r="M15" s="191"/>
+      <c r="N15" s="192"/>
+      <c r="O15" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="P15" s="186"/>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="206" t="s">
+      <c r="P15" s="191"/>
+      <c r="Q15" s="192"/>
+      <c r="R15" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="S15" s="206" t="s">
+      <c r="S15" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="T15" s="207" t="s">
+      <c r="T15" s="47" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="208">
+    <row r="16" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="193">
         <v>1</v>
       </c>
-      <c r="B16" s="187"/>
-      <c r="C16" s="209" t="s">
+      <c r="B16" s="192"/>
+      <c r="C16" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="187"/>
-      <c r="E16" s="209" t="s">
+      <c r="D16" s="192"/>
+      <c r="E16" s="194" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="187"/>
-      <c r="G16" s="210" t="s">
+      <c r="F16" s="192"/>
+      <c r="G16" s="195" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="186"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="210" t="s">
+      <c r="H16" s="191"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="187"/>
-      <c r="L16" s="211" t="s">
+      <c r="K16" s="192"/>
+      <c r="L16" s="190" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="186"/>
-      <c r="N16" s="187"/>
-      <c r="O16" s="211" t="s">
+      <c r="M16" s="191"/>
+      <c r="N16" s="192"/>
+      <c r="O16" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="186"/>
-      <c r="Q16" s="187"/>
-      <c r="R16" s="212"/>
-      <c r="S16" s="212"/>
-      <c r="T16" s="213"/>
-      <c r="U16" s="214"/>
-      <c r="V16" s="214"/>
-      <c r="W16" s="214"/>
-      <c r="X16" s="214"/>
-      <c r="Y16" s="214"/>
-      <c r="Z16" s="214"/>
-    </row>
-    <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="208">
+      <c r="P16" s="191"/>
+      <c r="Q16" s="192"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+    </row>
+    <row r="17" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="193">
         <v>2</v>
       </c>
-      <c r="B17" s="187"/>
-      <c r="C17" s="209" t="s">
+      <c r="B17" s="192"/>
+      <c r="C17" s="194" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="209" t="s">
+      <c r="D17" s="192"/>
+      <c r="E17" s="194" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="187"/>
-      <c r="G17" s="210" t="s">
+      <c r="F17" s="192"/>
+      <c r="G17" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="186"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="210" t="s">
+      <c r="H17" s="191"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="195" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="187"/>
-      <c r="L17" s="211" t="s">
+      <c r="K17" s="192"/>
+      <c r="L17" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="M17" s="186"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="211" t="s">
+      <c r="M17" s="191"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="186"/>
-      <c r="Q17" s="187"/>
-      <c r="R17" s="212"/>
-      <c r="S17" s="212"/>
-      <c r="T17" s="213"/>
-      <c r="U17" s="214"/>
-      <c r="V17" s="214"/>
-      <c r="W17" s="214"/>
-      <c r="X17" s="214"/>
-      <c r="Y17" s="214"/>
-      <c r="Z17" s="214"/>
-    </row>
-    <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="208"/>
-      <c r="B18" s="187"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="210"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="186"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="186"/>
-      <c r="Q18" s="187"/>
-      <c r="R18" s="212"/>
-      <c r="S18" s="212"/>
-      <c r="T18" s="213"/>
-      <c r="U18" s="214"/>
-      <c r="V18" s="214"/>
-      <c r="W18" s="214"/>
-      <c r="X18" s="214"/>
-      <c r="Y18" s="214"/>
-      <c r="Z18" s="214"/>
-    </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="208"/>
-      <c r="B19" s="187"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="210"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="211"/>
-      <c r="M19" s="186"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="211"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="187"/>
-      <c r="R19" s="212"/>
-      <c r="S19" s="212"/>
-      <c r="T19" s="213"/>
-      <c r="U19" s="214"/>
-      <c r="V19" s="214"/>
-      <c r="W19" s="214"/>
-      <c r="X19" s="214"/>
-      <c r="Y19" s="214"/>
-      <c r="Z19" s="214"/>
-    </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="208"/>
-      <c r="B20" s="187"/>
-      <c r="C20" s="209"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="211"/>
-      <c r="M20" s="186"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="211"/>
-      <c r="P20" s="186"/>
-      <c r="Q20" s="187"/>
-      <c r="R20" s="212"/>
-      <c r="S20" s="212"/>
-      <c r="T20" s="213"/>
-      <c r="U20" s="214"/>
-      <c r="V20" s="214"/>
-      <c r="W20" s="214"/>
-      <c r="X20" s="214"/>
-      <c r="Y20" s="214"/>
-      <c r="Z20" s="214"/>
-    </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="208"/>
-      <c r="B21" s="187"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="210"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="211"/>
-      <c r="M21" s="186"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="211"/>
-      <c r="P21" s="186"/>
-      <c r="Q21" s="187"/>
-      <c r="R21" s="212"/>
-      <c r="S21" s="212"/>
-      <c r="T21" s="213"/>
-      <c r="U21" s="214"/>
-      <c r="V21" s="214"/>
-      <c r="W21" s="214"/>
-      <c r="X21" s="214"/>
-      <c r="Y21" s="214"/>
-      <c r="Z21" s="214"/>
-    </row>
-    <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="208"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="210"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="211"/>
-      <c r="M22" s="186"/>
-      <c r="N22" s="187"/>
-      <c r="O22" s="211"/>
-      <c r="P22" s="186"/>
-      <c r="Q22" s="187"/>
-      <c r="R22" s="212"/>
-      <c r="S22" s="212"/>
-      <c r="T22" s="213"/>
-      <c r="U22" s="214"/>
-      <c r="V22" s="214"/>
-      <c r="W22" s="214"/>
-      <c r="X22" s="214"/>
-      <c r="Y22" s="214"/>
-      <c r="Z22" s="214"/>
-    </row>
-    <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="208"/>
-      <c r="B23" s="187"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="211"/>
-      <c r="M23" s="186"/>
-      <c r="N23" s="187"/>
-      <c r="O23" s="211"/>
-      <c r="P23" s="186"/>
-      <c r="Q23" s="187"/>
-      <c r="R23" s="212"/>
-      <c r="S23" s="212"/>
-      <c r="T23" s="213"/>
-      <c r="U23" s="214"/>
-      <c r="V23" s="214"/>
-      <c r="W23" s="214"/>
-      <c r="X23" s="214"/>
-      <c r="Y23" s="214"/>
-      <c r="Z23" s="214"/>
-    </row>
-    <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="208"/>
-      <c r="B24" s="187"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="209"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="210"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="210"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="211"/>
-      <c r="M24" s="186"/>
-      <c r="N24" s="187"/>
-      <c r="O24" s="211"/>
-      <c r="P24" s="186"/>
-      <c r="Q24" s="187"/>
-      <c r="R24" s="212"/>
-      <c r="S24" s="212"/>
-      <c r="T24" s="213"/>
-      <c r="U24" s="214"/>
-      <c r="V24" s="214"/>
-      <c r="W24" s="214"/>
-      <c r="X24" s="214"/>
-      <c r="Y24" s="214"/>
-      <c r="Z24" s="214"/>
-    </row>
-    <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="208"/>
-      <c r="B25" s="187"/>
-      <c r="C25" s="209"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="210"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="211"/>
-      <c r="M25" s="186"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="211"/>
-      <c r="P25" s="186"/>
-      <c r="Q25" s="187"/>
-      <c r="R25" s="212"/>
-      <c r="S25" s="212"/>
-      <c r="T25" s="213"/>
-      <c r="U25" s="214"/>
-      <c r="V25" s="214"/>
-      <c r="W25" s="214"/>
-      <c r="X25" s="214"/>
-      <c r="Y25" s="214"/>
-      <c r="Z25" s="214"/>
-    </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="208"/>
-      <c r="B26" s="187"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="211"/>
-      <c r="M26" s="186"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="211"/>
-      <c r="P26" s="186"/>
-      <c r="Q26" s="187"/>
-      <c r="R26" s="212"/>
-      <c r="S26" s="212"/>
-      <c r="T26" s="213"/>
-      <c r="U26" s="214"/>
-      <c r="V26" s="214"/>
-      <c r="W26" s="214"/>
-      <c r="X26" s="214"/>
-      <c r="Y26" s="214"/>
-      <c r="Z26" s="214"/>
-    </row>
-    <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="208"/>
-      <c r="B27" s="187"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="209"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="211"/>
-      <c r="M27" s="186"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="211"/>
-      <c r="P27" s="186"/>
-      <c r="Q27" s="187"/>
-      <c r="R27" s="212"/>
-      <c r="S27" s="212"/>
-      <c r="T27" s="213"/>
-      <c r="U27" s="214"/>
-      <c r="V27" s="214"/>
-      <c r="W27" s="214"/>
-      <c r="X27" s="214"/>
-      <c r="Y27" s="214"/>
-      <c r="Z27" s="214"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="208"/>
-      <c r="B28" s="187"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="209"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="210"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="210"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="211"/>
-      <c r="M28" s="186"/>
-      <c r="N28" s="187"/>
-      <c r="O28" s="211"/>
-      <c r="P28" s="186"/>
-      <c r="Q28" s="187"/>
-      <c r="R28" s="212"/>
-      <c r="S28" s="212"/>
-      <c r="T28" s="213"/>
-      <c r="U28" s="214"/>
-      <c r="V28" s="214"/>
-      <c r="W28" s="214"/>
-      <c r="X28" s="214"/>
-      <c r="Y28" s="214"/>
-      <c r="Z28" s="214"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="208"/>
-      <c r="B29" s="187"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="209"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="210"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="186"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="211"/>
-      <c r="P29" s="186"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="212"/>
-      <c r="S29" s="212"/>
-      <c r="T29" s="213"/>
-      <c r="U29" s="214"/>
-      <c r="V29" s="214"/>
-      <c r="W29" s="214"/>
-      <c r="X29" s="214"/>
-      <c r="Y29" s="214"/>
-      <c r="Z29" s="214"/>
-    </row>
-    <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="208"/>
-      <c r="B30" s="187"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="209"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="210"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="211"/>
-      <c r="M30" s="186"/>
-      <c r="N30" s="187"/>
-      <c r="O30" s="211"/>
-      <c r="P30" s="186"/>
-      <c r="Q30" s="187"/>
-      <c r="R30" s="212"/>
-      <c r="S30" s="212"/>
-      <c r="T30" s="213"/>
-      <c r="U30" s="214"/>
-      <c r="V30" s="214"/>
-      <c r="W30" s="214"/>
-      <c r="X30" s="214"/>
-      <c r="Y30" s="214"/>
-      <c r="Z30" s="214"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A31" s="215"/>
-      <c r="B31" s="216"/>
-      <c r="C31" s="217"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="218"/>
-      <c r="K31" s="216"/>
-      <c r="L31" s="220"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="216"/>
-      <c r="O31" s="220"/>
-      <c r="P31" s="219"/>
-      <c r="Q31" s="216"/>
-      <c r="R31" s="221"/>
-      <c r="S31" s="221"/>
-      <c r="T31" s="222"/>
-      <c r="U31" s="214"/>
-      <c r="V31" s="214"/>
-      <c r="W31" s="214"/>
-      <c r="X31" s="214"/>
-      <c r="Y31" s="214"/>
-      <c r="Z31" s="214"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+    </row>
+    <row r="18" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="193">
+        <v>3</v>
+      </c>
+      <c r="B18" s="192"/>
+      <c r="C18" s="194" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="192"/>
+      <c r="E18" s="194" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="192"/>
+      <c r="G18" s="195" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="191"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="195" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="192"/>
+      <c r="L18" s="190" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="191"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="190" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="191"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+    </row>
+    <row r="19" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="193">
+        <v>4</v>
+      </c>
+      <c r="B19" s="192"/>
+      <c r="C19" s="194" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="192"/>
+      <c r="E19" s="194" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="192"/>
+      <c r="G19" s="195" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="191"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="195" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="192"/>
+      <c r="L19" s="190" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="191"/>
+      <c r="N19" s="192"/>
+      <c r="O19" s="190" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" s="191"/>
+      <c r="Q19" s="192"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+    </row>
+    <row r="20" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="193"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="192"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="192"/>
+      <c r="O20" s="190"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="192"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+    </row>
+    <row r="21" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="193"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="192"/>
+      <c r="O21" s="190"/>
+      <c r="P21" s="191"/>
+      <c r="Q21" s="192"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+    </row>
+    <row r="22" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="193"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="195"/>
+      <c r="K22" s="192"/>
+      <c r="L22" s="190"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="192"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="192"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+    </row>
+    <row r="23" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="193"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="192"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="192"/>
+      <c r="O23" s="190"/>
+      <c r="P23" s="191"/>
+      <c r="Q23" s="192"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+    </row>
+    <row r="24" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="193"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="195"/>
+      <c r="K24" s="192"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="192"/>
+      <c r="O24" s="190"/>
+      <c r="P24" s="191"/>
+      <c r="Q24" s="192"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+    </row>
+    <row r="25" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="193"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="192"/>
+      <c r="L25" s="190"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="192"/>
+      <c r="O25" s="190"/>
+      <c r="P25" s="191"/>
+      <c r="Q25" s="192"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+    </row>
+    <row r="26" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="193"/>
+      <c r="B26" s="192"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="192"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="192"/>
+      <c r="O26" s="190"/>
+      <c r="P26" s="191"/>
+      <c r="Q26" s="192"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+    </row>
+    <row r="27" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="193"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="192"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="192"/>
+      <c r="O27" s="190"/>
+      <c r="P27" s="191"/>
+      <c r="Q27" s="192"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+    </row>
+    <row r="28" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A28" s="193"/>
+      <c r="B28" s="192"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="195"/>
+      <c r="K28" s="192"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="192"/>
+      <c r="O28" s="190"/>
+      <c r="P28" s="191"/>
+      <c r="Q28" s="192"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+    </row>
+    <row r="29" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="193"/>
+      <c r="B29" s="192"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="195"/>
+      <c r="K29" s="192"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="192"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="191"/>
+      <c r="Q29" s="192"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+    </row>
+    <row r="30" spans="1:26" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="193"/>
+      <c r="B30" s="192"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="192"/>
+      <c r="L30" s="190"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="192"/>
+      <c r="O30" s="190"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="192"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+    </row>
+    <row r="31" spans="1:26" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="A31" s="187"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="186"/>
+      <c r="L31" s="184"/>
+      <c r="M31" s="185"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="184"/>
+      <c r="P31" s="185"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1">
-      <c r="D32" s="223"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="223"/>
-      <c r="G32" s="223"/>
-      <c r="H32" s="223"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="223"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="4:10" ht="12.75" customHeight="1">
-      <c r="D33" s="223"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="223"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="223"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
     </row>
     <row r="34" spans="4:10" ht="12.75" customHeight="1"/>
     <row r="35" spans="4:10" ht="12.75" customHeight="1"/>
@@ -12442,6 +12593,121 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="O31:Q31"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
@@ -12463,121 +12729,6 @@
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/設計書/Sakagami/プロジェクト型演習_成果物(削除画面).xlsx
+++ b/設計書/Sakagami/プロジェクト型演習_成果物(削除画面).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\設計書\Sakagami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCF0194-261F-49DD-8F5A-E89C11F1CF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8FC813-8BEA-40BD-B9DC-2CBB482D5067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="844" activeTab="4" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="844" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
   <si>
     <t>レイヤー</t>
     <phoneticPr fontId="1"/>
@@ -888,20 +888,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>すでに削除済みのタスクを削除しようとした場合</t>
-    <rPh sb="3" eb="6">
-      <t>サクジョズ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
+    <t>タスクにコメントがついていない場合</t>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクにコメントがついている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意文を表示しタスク一覧画面へと遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>projectX</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2162,7 +2183,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2352,6 +2373,54 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2415,27 +2484,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2460,35 +2511,140 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2496,150 +2652,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2715,6 +2736,108 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2733,107 +2856,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6652,7 +6676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EF8804-ED12-429B-AA5E-4AF81E6CD219}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7836,19 +7860,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="86"/>
+      <c r="F1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="86"/>
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
@@ -7860,206 +7884,195 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="71" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="88"/>
+      <c r="F2" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="77">
+      <c r="G2" s="88"/>
+      <c r="H2" s="93">
         <v>45639</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="82"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="98"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="99"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="105" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="106"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="88" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="107"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="108" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="107"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="75"/>
     </row>
     <row r="8" spans="1:10" ht="65.25" customHeight="1">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="88" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="107"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="88" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="90"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
     </row>
     <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="84" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="108" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="84" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="88" t="s">
+      <c r="C11" s="70"/>
+      <c r="D11" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:10" ht="62.25" customHeight="1">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="88" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="90"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -8076,6 +8089,17 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8096,263 +8120,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113" t="s">
+      <c r="D1" s="132"/>
+      <c r="E1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113" t="s">
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="116"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="158"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="109" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="114" t="s">
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="115"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="157"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A3" s="118"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109" t="s">
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="110"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="155"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="118"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="110"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="155"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="155"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="118"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="110"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="155"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="118"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="110"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="155"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="118"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="110"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="155"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114" t="s">
+      <c r="D9" s="134"/>
+      <c r="E9" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="109" t="s">
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="110"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="155"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="118"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="110"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="155"/>
     </row>
     <row r="11" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114" t="s">
+      <c r="B11" s="134"/>
+      <c r="C11" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114" t="s">
+      <c r="D11" s="134"/>
+      <c r="E11" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="109" t="s">
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="110"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="155"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A12" s="119"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111" t="s">
+      <c r="A12" s="135"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111" t="s">
+      <c r="D12" s="136"/>
+      <c r="E12" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111" t="s">
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="112"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="156"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="133"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="135" t="s">
+      <c r="B13" s="150"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="135" t="s">
+      <c r="E13" s="153"/>
+      <c r="F13" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="136"/>
+      <c r="G13" s="153"/>
       <c r="H13" s="28" t="s">
         <v>17</v>
       </c>
@@ -8364,310 +8388,310 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="134"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="71" t="s">
+      <c r="A14" s="151"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="71" t="s">
+      <c r="E14" s="88"/>
+      <c r="F14" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="77">
+      <c r="G14" s="88"/>
+      <c r="H14" s="93">
         <v>45639</v>
       </c>
-      <c r="I14" s="80" t="s">
+      <c r="I14" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="130"/>
+      <c r="J14" s="147"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="134"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="131"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="148"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A16" s="134"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="131"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="139" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="140"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="129"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="141"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="112"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="121"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="123"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="124"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="126"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="143"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="124"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="126"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="143"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A22" s="124"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="126"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="143"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="124"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="126"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="143"/>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A24" s="124"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="126"/>
+      <c r="A24" s="141"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="143"/>
       <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="124"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="126"/>
+      <c r="A25" s="141"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="143"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="124"/>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="126"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="120"/>
-      <c r="U26" s="120"/>
-      <c r="V26" s="120"/>
+      <c r="A26" s="141"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="143"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="124"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="126"/>
+      <c r="A27" s="141"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="143"/>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="124"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="126"/>
+      <c r="A28" s="141"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="143"/>
       <c r="N28" s="24"/>
       <c r="O28" s="24"/>
       <c r="P28" s="24"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="124"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="126"/>
+      <c r="A29" s="141"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="143"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="124"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="126"/>
+      <c r="A30" s="141"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="143"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="124"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="126"/>
+      <c r="A31" s="141"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="143"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="124"/>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="126"/>
+      <c r="A32" s="141"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="143"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="124"/>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="126"/>
+      <c r="A33" s="141"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="143"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="127"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="129"/>
+      <c r="A34" s="144"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="146"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="137" t="s">
+      <c r="A35" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="141"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="112"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="137" t="s">
+      <c r="A36" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="108" t="s">
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="101"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="65"/>
       <c r="I36" s="2" t="s">
         <v>24</v>
       </c>
@@ -8676,11 +8700,11 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="137" t="s">
+      <c r="A37" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="2" t="s">
         <v>26</v>
       </c>
@@ -8693,18 +8717,18 @@
       <c r="G37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="142" t="s">
+      <c r="H37" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="100"/>
-      <c r="J37" s="141"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="112"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="138" t="s">
+      <c r="A38" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="100"/>
-      <c r="C38" s="101"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
         <v>49</v>
@@ -8715,35 +8739,35 @@
       <c r="G38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="108"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="141"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="112"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="138"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="101"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="158"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="127"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="137" t="s">
+      <c r="A40" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="108" t="s">
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="101"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="65"/>
       <c r="I40" s="2" t="s">
         <v>24</v>
       </c>
@@ -8752,11 +8776,11 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="137" t="s">
+      <c r="A41" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
@@ -8769,18 +8793,18 @@
       <c r="G41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="142" t="s">
+      <c r="H41" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="100"/>
-      <c r="J41" s="141"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="112"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="150" t="s">
+      <c r="A42" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="152"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="120"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25" t="s">
         <v>49</v>
@@ -8791,44 +8815,38 @@
       <c r="G42" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="153"/>
-      <c r="I42" s="154"/>
-      <c r="J42" s="155"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="124"/>
     </row>
     <row r="43" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A43" s="144"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="146"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="149"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="H9:O10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G8"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D8"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H1:O1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B8"/>
     <mergeCell ref="A9:B10"/>
@@ -8845,20 +8863,26 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H3:O8"/>
-    <mergeCell ref="H9:O10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G8"/>
-    <mergeCell ref="E9:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D8"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="H2:O2"/>
-    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10673,8 +10697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC3E0D0-3737-416C-9D18-CA89C4855223}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -10687,182 +10711,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="221" t="s">
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="221" t="s">
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="221" t="s">
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="221" t="s">
+      <c r="P1" s="192"/>
+      <c r="Q1" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="207"/>
-      <c r="S1" s="221" t="s">
+      <c r="R1" s="192"/>
+      <c r="S1" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="209"/>
+      <c r="T1" s="194"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="215"/>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="223"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="223"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="223"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="200"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="184" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="224">
+        <v>45645</v>
+      </c>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="184" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="211"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="185"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="215"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="201"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="202"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="186"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="187"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="218"/>
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="219"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="220"/>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="220"/>
-      <c r="S4" s="203"/>
-      <c r="T4" s="204"/>
+      <c r="A4" s="206"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="189"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="206"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
-      <c r="G5" s="208" t="s">
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206"/>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="206"/>
-      <c r="R5" s="206"/>
-      <c r="S5" s="206"/>
-      <c r="T5" s="209"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="191"/>
+      <c r="L5" s="191"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="191"/>
+      <c r="Q5" s="191"/>
+      <c r="R5" s="191"/>
+      <c r="S5" s="191"/>
+      <c r="T5" s="194"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="195" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="210" t="s">
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="198" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="191"/>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="211"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="199"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="195" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="210" t="s">
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="191"/>
-      <c r="N7" s="191"/>
-      <c r="O7" s="191"/>
-      <c r="P7" s="191"/>
-      <c r="Q7" s="191"/>
-      <c r="R7" s="191"/>
-      <c r="S7" s="191"/>
-      <c r="T7" s="211"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="196"/>
+      <c r="R7" s="196"/>
+      <c r="S7" s="196"/>
+      <c r="T7" s="199"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="32"/>
@@ -11061,37 +11093,37 @@
       <c r="T14" s="34"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="192"/>
-      <c r="C15" s="198" t="s">
+      <c r="B15" s="197"/>
+      <c r="C15" s="217" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="192"/>
-      <c r="E15" s="196" t="s">
+      <c r="D15" s="197"/>
+      <c r="E15" s="212" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="192"/>
-      <c r="G15" s="196" t="s">
+      <c r="F15" s="197"/>
+      <c r="G15" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="191"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="196" t="s">
+      <c r="H15" s="196"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="212" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="192"/>
-      <c r="L15" s="196" t="s">
+      <c r="K15" s="197"/>
+      <c r="L15" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="M15" s="191"/>
-      <c r="N15" s="192"/>
-      <c r="O15" s="196" t="s">
+      <c r="M15" s="196"/>
+      <c r="N15" s="197"/>
+      <c r="O15" s="212" t="s">
         <v>99</v>
       </c>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="192"/>
+      <c r="P15" s="196"/>
+      <c r="Q15" s="197"/>
       <c r="R15" s="46" t="s">
         <v>100</v>
       </c>
@@ -11103,37 +11135,37 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="193">
+      <c r="A16" s="213">
         <v>1</v>
       </c>
-      <c r="B16" s="192"/>
-      <c r="C16" s="194" t="s">
+      <c r="B16" s="197"/>
+      <c r="C16" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="192"/>
-      <c r="E16" s="194" t="s">
+      <c r="D16" s="197"/>
+      <c r="E16" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="195" t="s">
+      <c r="F16" s="197"/>
+      <c r="G16" s="215" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="191"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="195" t="s">
+      <c r="H16" s="196"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="215" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="192"/>
-      <c r="L16" s="190" t="s">
+      <c r="K16" s="197"/>
+      <c r="L16" s="216" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="191"/>
-      <c r="N16" s="192"/>
-      <c r="O16" s="190" t="s">
+      <c r="M16" s="196"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="191"/>
-      <c r="Q16" s="192"/>
+      <c r="P16" s="196"/>
+      <c r="Q16" s="197"/>
       <c r="R16" s="48"/>
       <c r="S16" s="48"/>
       <c r="T16" s="49"/>
@@ -11145,37 +11177,37 @@
       <c r="Z16" s="50"/>
     </row>
     <row r="17" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="193">
+      <c r="A17" s="213">
         <v>2</v>
       </c>
-      <c r="B17" s="192"/>
-      <c r="C17" s="194" t="s">
+      <c r="B17" s="197"/>
+      <c r="C17" s="214" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="194" t="s">
+      <c r="D17" s="197"/>
+      <c r="E17" s="214" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="192"/>
-      <c r="G17" s="195" t="s">
+      <c r="F17" s="197"/>
+      <c r="G17" s="215" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="191"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="195" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" s="192"/>
-      <c r="L17" s="190" t="s">
+      <c r="H17" s="196"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="215" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="197"/>
+      <c r="L17" s="216" t="s">
         <v>113</v>
       </c>
-      <c r="M17" s="191"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="190" t="s">
+      <c r="M17" s="196"/>
+      <c r="N17" s="197"/>
+      <c r="O17" s="216" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="192"/>
+      <c r="P17" s="196"/>
+      <c r="Q17" s="197"/>
       <c r="R17" s="48"/>
       <c r="S17" s="48"/>
       <c r="T17" s="49"/>
@@ -11187,37 +11219,37 @@
       <c r="Z17" s="50"/>
     </row>
     <row r="18" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A18" s="193">
+      <c r="A18" s="213">
         <v>3</v>
       </c>
-      <c r="B18" s="192"/>
-      <c r="C18" s="194" t="s">
+      <c r="B18" s="197"/>
+      <c r="C18" s="214" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="192"/>
-      <c r="E18" s="194" t="s">
+      <c r="D18" s="197"/>
+      <c r="E18" s="214" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="192"/>
-      <c r="G18" s="195" t="s">
+      <c r="F18" s="197"/>
+      <c r="G18" s="215" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="191"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="195" t="s">
+      <c r="H18" s="196"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="192"/>
-      <c r="L18" s="190" t="s">
+      <c r="K18" s="197"/>
+      <c r="L18" s="216" t="s">
         <v>115</v>
       </c>
-      <c r="M18" s="191"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="190" t="s">
+      <c r="M18" s="196"/>
+      <c r="N18" s="197"/>
+      <c r="O18" s="216" t="s">
         <v>116</v>
       </c>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="192"/>
+      <c r="P18" s="196"/>
+      <c r="Q18" s="197"/>
       <c r="R18" s="48"/>
       <c r="S18" s="48"/>
       <c r="T18" s="49"/>
@@ -11229,37 +11261,37 @@
       <c r="Z18" s="50"/>
     </row>
     <row r="19" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A19" s="193">
+      <c r="A19" s="213">
         <v>4</v>
       </c>
-      <c r="B19" s="192"/>
-      <c r="C19" s="194" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="192"/>
-      <c r="E19" s="194" t="s">
+      <c r="B19" s="197"/>
+      <c r="C19" s="214" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="197"/>
+      <c r="E19" s="214" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="192"/>
-      <c r="G19" s="195" t="s">
+      <c r="F19" s="197"/>
+      <c r="G19" s="215" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="191"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="195" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="192"/>
-      <c r="L19" s="190" t="s">
+      <c r="H19" s="196"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="215" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="197"/>
+      <c r="L19" s="216" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="191"/>
-      <c r="N19" s="192"/>
-      <c r="O19" s="190" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" s="191"/>
-      <c r="Q19" s="192"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="197"/>
+      <c r="O19" s="216" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="197"/>
       <c r="R19" s="48"/>
       <c r="S19" s="48"/>
       <c r="T19" s="49"/>
@@ -11271,23 +11303,23 @@
       <c r="Z19" s="50"/>
     </row>
     <row r="20" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A20" s="193"/>
-      <c r="B20" s="192"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="195"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="191"/>
-      <c r="N20" s="192"/>
-      <c r="O20" s="190"/>
-      <c r="P20" s="191"/>
-      <c r="Q20" s="192"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="215"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="215"/>
+      <c r="K20" s="197"/>
+      <c r="L20" s="216"/>
+      <c r="M20" s="196"/>
+      <c r="N20" s="197"/>
+      <c r="O20" s="216"/>
+      <c r="P20" s="196"/>
+      <c r="Q20" s="197"/>
       <c r="R20" s="48"/>
       <c r="S20" s="48"/>
       <c r="T20" s="49"/>
@@ -11299,23 +11331,23 @@
       <c r="Z20" s="50"/>
     </row>
     <row r="21" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A21" s="193"/>
-      <c r="B21" s="192"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="191"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="195"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="191"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="190"/>
-      <c r="P21" s="191"/>
-      <c r="Q21" s="192"/>
+      <c r="A21" s="213"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="215"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="215"/>
+      <c r="K21" s="197"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="196"/>
+      <c r="N21" s="197"/>
+      <c r="O21" s="216"/>
+      <c r="P21" s="196"/>
+      <c r="Q21" s="197"/>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
       <c r="T21" s="49"/>
@@ -11327,23 +11359,23 @@
       <c r="Z21" s="50"/>
     </row>
     <row r="22" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="193"/>
-      <c r="B22" s="192"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="195"/>
-      <c r="H22" s="191"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="191"/>
-      <c r="N22" s="192"/>
-      <c r="O22" s="190"/>
-      <c r="P22" s="191"/>
-      <c r="Q22" s="192"/>
+      <c r="A22" s="213"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="215"/>
+      <c r="K22" s="197"/>
+      <c r="L22" s="216"/>
+      <c r="M22" s="196"/>
+      <c r="N22" s="197"/>
+      <c r="O22" s="216"/>
+      <c r="P22" s="196"/>
+      <c r="Q22" s="197"/>
       <c r="R22" s="48"/>
       <c r="S22" s="48"/>
       <c r="T22" s="49"/>
@@ -11355,23 +11387,23 @@
       <c r="Z22" s="50"/>
     </row>
     <row r="23" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A23" s="193"/>
-      <c r="B23" s="192"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="191"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="190"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="192"/>
-      <c r="O23" s="190"/>
-      <c r="P23" s="191"/>
-      <c r="Q23" s="192"/>
+      <c r="A23" s="213"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="215"/>
+      <c r="K23" s="197"/>
+      <c r="L23" s="216"/>
+      <c r="M23" s="196"/>
+      <c r="N23" s="197"/>
+      <c r="O23" s="216"/>
+      <c r="P23" s="196"/>
+      <c r="Q23" s="197"/>
       <c r="R23" s="48"/>
       <c r="S23" s="48"/>
       <c r="T23" s="49"/>
@@ -11383,23 +11415,23 @@
       <c r="Z23" s="50"/>
     </row>
     <row r="24" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A24" s="193"/>
-      <c r="B24" s="192"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="195"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="191"/>
-      <c r="N24" s="192"/>
-      <c r="O24" s="190"/>
-      <c r="P24" s="191"/>
-      <c r="Q24" s="192"/>
+      <c r="A24" s="213"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="215"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="215"/>
+      <c r="K24" s="197"/>
+      <c r="L24" s="216"/>
+      <c r="M24" s="196"/>
+      <c r="N24" s="197"/>
+      <c r="O24" s="216"/>
+      <c r="P24" s="196"/>
+      <c r="Q24" s="197"/>
       <c r="R24" s="48"/>
       <c r="S24" s="48"/>
       <c r="T24" s="49"/>
@@ -11411,23 +11443,23 @@
       <c r="Z24" s="50"/>
     </row>
     <row r="25" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A25" s="193"/>
-      <c r="B25" s="192"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="191"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="190"/>
-      <c r="M25" s="191"/>
-      <c r="N25" s="192"/>
-      <c r="O25" s="190"/>
-      <c r="P25" s="191"/>
-      <c r="Q25" s="192"/>
+      <c r="A25" s="213"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="197"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="197"/>
+      <c r="L25" s="216"/>
+      <c r="M25" s="196"/>
+      <c r="N25" s="197"/>
+      <c r="O25" s="216"/>
+      <c r="P25" s="196"/>
+      <c r="Q25" s="197"/>
       <c r="R25" s="48"/>
       <c r="S25" s="48"/>
       <c r="T25" s="49"/>
@@ -11439,23 +11471,23 @@
       <c r="Z25" s="50"/>
     </row>
     <row r="26" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A26" s="193"/>
-      <c r="B26" s="192"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="191"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="195"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="190"/>
-      <c r="M26" s="191"/>
-      <c r="N26" s="192"/>
-      <c r="O26" s="190"/>
-      <c r="P26" s="191"/>
-      <c r="Q26" s="192"/>
+      <c r="A26" s="213"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="197"/>
+      <c r="L26" s="216"/>
+      <c r="M26" s="196"/>
+      <c r="N26" s="197"/>
+      <c r="O26" s="216"/>
+      <c r="P26" s="196"/>
+      <c r="Q26" s="197"/>
       <c r="R26" s="48"/>
       <c r="S26" s="48"/>
       <c r="T26" s="49"/>
@@ -11467,23 +11499,23 @@
       <c r="Z26" s="50"/>
     </row>
     <row r="27" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A27" s="193"/>
-      <c r="B27" s="192"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="191"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="190"/>
-      <c r="M27" s="191"/>
-      <c r="N27" s="192"/>
-      <c r="O27" s="190"/>
-      <c r="P27" s="191"/>
-      <c r="Q27" s="192"/>
+      <c r="A27" s="213"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="215"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="216"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="197"/>
+      <c r="O27" s="216"/>
+      <c r="P27" s="196"/>
+      <c r="Q27" s="197"/>
       <c r="R27" s="48"/>
       <c r="S27" s="48"/>
       <c r="T27" s="49"/>
@@ -11495,23 +11527,23 @@
       <c r="Z27" s="50"/>
     </row>
     <row r="28" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A28" s="193"/>
-      <c r="B28" s="192"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="192"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="195"/>
-      <c r="H28" s="191"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="195"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="191"/>
-      <c r="N28" s="192"/>
-      <c r="O28" s="190"/>
-      <c r="P28" s="191"/>
-      <c r="Q28" s="192"/>
+      <c r="A28" s="213"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="215"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="216"/>
+      <c r="M28" s="196"/>
+      <c r="N28" s="197"/>
+      <c r="O28" s="216"/>
+      <c r="P28" s="196"/>
+      <c r="Q28" s="197"/>
       <c r="R28" s="48"/>
       <c r="S28" s="48"/>
       <c r="T28" s="49"/>
@@ -11523,23 +11555,23 @@
       <c r="Z28" s="50"/>
     </row>
     <row r="29" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A29" s="193"/>
-      <c r="B29" s="192"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="195"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="195"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="192"/>
-      <c r="O29" s="190"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="192"/>
+      <c r="A29" s="213"/>
+      <c r="B29" s="197"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="197"/>
+      <c r="G29" s="215"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="197"/>
+      <c r="J29" s="215"/>
+      <c r="K29" s="197"/>
+      <c r="L29" s="216"/>
+      <c r="M29" s="196"/>
+      <c r="N29" s="197"/>
+      <c r="O29" s="216"/>
+      <c r="P29" s="196"/>
+      <c r="Q29" s="197"/>
       <c r="R29" s="48"/>
       <c r="S29" s="48"/>
       <c r="T29" s="49"/>
@@ -11551,23 +11583,23 @@
       <c r="Z29" s="50"/>
     </row>
     <row r="30" spans="1:26" ht="39.950000000000003" customHeight="1">
-      <c r="A30" s="193"/>
-      <c r="B30" s="192"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="191"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="192"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="192"/>
-      <c r="O30" s="190"/>
-      <c r="P30" s="191"/>
-      <c r="Q30" s="192"/>
+      <c r="A30" s="213"/>
+      <c r="B30" s="197"/>
+      <c r="C30" s="214"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="215"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="215"/>
+      <c r="K30" s="197"/>
+      <c r="L30" s="216"/>
+      <c r="M30" s="196"/>
+      <c r="N30" s="197"/>
+      <c r="O30" s="216"/>
+      <c r="P30" s="196"/>
+      <c r="Q30" s="197"/>
       <c r="R30" s="48"/>
       <c r="S30" s="48"/>
       <c r="T30" s="49"/>
@@ -11579,23 +11611,23 @@
       <c r="Z30" s="50"/>
     </row>
     <row r="31" spans="1:26" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A31" s="187"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="186"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="185"/>
-      <c r="N31" s="186"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="185"/>
-      <c r="Q31" s="186"/>
+      <c r="A31" s="221"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="220"/>
+      <c r="E31" s="222"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="223"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="223"/>
+      <c r="K31" s="220"/>
+      <c r="L31" s="218"/>
+      <c r="M31" s="219"/>
+      <c r="N31" s="220"/>
+      <c r="O31" s="218"/>
+      <c r="P31" s="219"/>
+      <c r="Q31" s="220"/>
       <c r="R31" s="51"/>
       <c r="S31" s="51"/>
       <c r="T31" s="52"/>
@@ -12593,121 +12625,6 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:N27"/>
     <mergeCell ref="O31:Q31"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
@@ -12729,6 +12646,121 @@
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
